--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6978</x:v>
+        <x:v>6983</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6817</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13795</x:v>
+        <x:v>13800</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8159</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5957</x:v>
+        <x:v>5958</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14116</x:v>
+        <x:v>14117</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4984</x:v>
+        <x:v>4985</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5647</x:v>
+        <x:v>5648</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10631</x:v>
+        <x:v>10633</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14556</x:v>
+        <x:v>14557</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9386</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23942</x:v>
+        <x:v>23943</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6983</x:v>
+        <x:v>6988</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6817</x:v>
+        <x:v>6820</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13800</x:v>
+        <x:v>13808</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8159</x:v>
+        <x:v>8164</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5958</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14117</x:v>
+        <x:v>14122</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5993</x:v>
+        <x:v>5995</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8785</x:v>
+        <x:v>8787</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4985</x:v>
+        <x:v>4986</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5648</x:v>
+        <x:v>5649</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10633</x:v>
+        <x:v>10635</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14557</x:v>
+        <x:v>14559</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9386</x:v>
+        <x:v>9388</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23943</x:v>
+        <x:v>23947</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3210</x:v>
+        <x:v>3211</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3411</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6621</x:v>
+        <x:v>6622</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6535</x:v>
+        <x:v>6538</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5618</x:v>
+        <x:v>5619</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12153</x:v>
+        <x:v>12157</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6988</x:v>
+        <x:v>6991</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6820</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13808</x:v>
+        <x:v>13811</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>1223</x:v>
+        <x:v>1225</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>1120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2343</x:v>
+        <x:v>2345</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6991</x:v>
+        <x:v>6994</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6820</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13811</x:v>
+        <x:v>13814</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8164</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5958</x:v>
+        <x:v>5965</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14122</x:v>
+        <x:v>14129</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14559</x:v>
+        <x:v>14561</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9388</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23947</x:v>
+        <x:v>23949</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>1225</x:v>
+        <x:v>1226</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>1120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2345</x:v>
+        <x:v>2346</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>6994</x:v>
+        <x:v>7004</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6820</x:v>
+        <x:v>6824</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13814</x:v>
+        <x:v>13828</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8164</x:v>
+        <x:v>8166</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5965</x:v>
+        <x:v>5975</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14129</x:v>
+        <x:v>14141</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5995</x:v>
+        <x:v>5994</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8787</x:v>
+        <x:v>8786</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4986</x:v>
+        <x:v>4988</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5649</x:v>
+        <x:v>5650</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10635</x:v>
+        <x:v>10638</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14561</x:v>
+        <x:v>14587</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9388</x:v>
+        <x:v>9391</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23949</x:v>
+        <x:v>23978</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2507</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2264</x:v>
+        <x:v>2265</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4771</x:v>
+        <x:v>4772</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6538</x:v>
+        <x:v>6541</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5619</x:v>
+        <x:v>5620</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12157</x:v>
+        <x:v>12161</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7004</x:v>
+        <x:v>7009</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6824</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13828</x:v>
+        <x:v>13833</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8166</x:v>
+        <x:v>8168</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5975</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14141</x:v>
+        <x:v>14143</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5994</x:v>
+        <x:v>5995</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8786</x:v>
+        <x:v>8787</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4988</x:v>
+        <x:v>4989</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5650</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10638</x:v>
+        <x:v>10639</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14587</x:v>
+        <x:v>14605</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9391</x:v>
+        <x:v>9400</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>23978</x:v>
+        <x:v>24005</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2507</x:v>
+        <x:v>2512</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2265</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4772</x:v>
+        <x:v>4777</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>3420</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3626</x:v>
+        <x:v>3627</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7046</x:v>
+        <x:v>7047</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7009</x:v>
+        <x:v>7007</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6824</x:v>
+        <x:v>6825</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13833</x:v>
+        <x:v>13832</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8168</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5975</x:v>
+        <x:v>5978</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14143</x:v>
+        <x:v>14146</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2512</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2265</x:v>
+        <x:v>2266</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4777</x:v>
+        <x:v>4778</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7007</x:v>
+        <x:v>7008</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6825</x:v>
+        <x:v>6827</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13832</x:v>
+        <x:v>13835</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8168</x:v>
+        <x:v>8167</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5978</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14146</x:v>
+        <x:v>14145</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4989</x:v>
+        <x:v>4999</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5650</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10639</x:v>
+        <x:v>10649</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14605</x:v>
+        <x:v>14606</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9400</x:v>
+        <x:v>9402</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24005</x:v>
+        <x:v>24008</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3211</x:v>
+        <x:v>3212</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3411</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6622</x:v>
+        <x:v>6623</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2512</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2266</x:v>
+        <x:v>2267</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4778</x:v>
+        <x:v>4779</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6541</x:v>
+        <x:v>6542</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5620</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12161</x:v>
+        <x:v>12162</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>1226</x:v>
+        <x:v>1229</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>1120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2346</x:v>
+        <x:v>2349</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3420</x:v>
+        <x:v>3422</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>3627</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7047</x:v>
+        <x:v>7049</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7008</x:v>
+        <x:v>7013</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6827</x:v>
+        <x:v>6828</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13835</x:v>
+        <x:v>13841</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8167</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5978</x:v>
+        <x:v>5979</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14145</x:v>
+        <x:v>14146</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -505,10 +505,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3212</x:v>
+        <x:v>3213</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3411</x:v>
+        <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
         <x:v>6623</x:v>
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2512</x:v>
+        <x:v>2513</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2267</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4779</x:v>
+        <x:v>4780</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6542</x:v>
+        <x:v>6543</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5620</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12162</x:v>
+        <x:v>12163</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4999</x:v>
+        <x:v>5001</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5650</x:v>
+        <x:v>5651</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10649</x:v>
+        <x:v>10652</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14606</x:v>
+        <x:v>14611</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9402</x:v>
+        <x:v>9405</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24008</x:v>
+        <x:v>24016</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2513</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2267</x:v>
+        <x:v>2268</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4780</x:v>
+        <x:v>4781</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6543</x:v>
+        <x:v>6544</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5620</x:v>
+        <x:v>5621</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12163</x:v>
+        <x:v>12165</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7013</x:v>
+        <x:v>7017</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6828</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13841</x:v>
+        <x:v>13845</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8167</x:v>
+        <x:v>8165</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5979</x:v>
+        <x:v>5980</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14146</x:v>
+        <x:v>14145</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5001</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5651</x:v>
+        <x:v>5652</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10652</x:v>
+        <x:v>10653</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14611</x:v>
+        <x:v>14630</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9405</x:v>
+        <x:v>9409</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24016</x:v>
+        <x:v>24039</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3213</x:v>
+        <x:v>3215</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6623</x:v>
+        <x:v>6625</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2513</x:v>
+        <x:v>2514</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2268</x:v>
+        <x:v>2270</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4781</x:v>
+        <x:v>4784</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6544</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5621</x:v>
+        <x:v>5622</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12165</x:v>
+        <x:v>12166</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7017</x:v>
+        <x:v>7020</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6828</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13845</x:v>
+        <x:v>13848</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14630</x:v>
+        <x:v>14632</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9409</x:v>
+        <x:v>9410</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24039</x:v>
+        <x:v>24042</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8165</x:v>
+        <x:v>8168</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5980</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14145</x:v>
+        <x:v>14148</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14632</x:v>
+        <x:v>14634</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9410</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24042</x:v>
+        <x:v>24044</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3422</x:v>
+        <x:v>3423</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3627</x:v>
+        <x:v>3628</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7049</x:v>
+        <x:v>7051</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7020</x:v>
+        <x:v>7021</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6828</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13848</x:v>
+        <x:v>13849</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8168</x:v>
+        <x:v>8178</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5980</x:v>
+        <x:v>5983</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14148</x:v>
+        <x:v>14161</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5001</x:v>
+        <x:v>5003</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5652</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10653</x:v>
+        <x:v>10655</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14634</x:v>
+        <x:v>14635</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9410</x:v>
+        <x:v>9411</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24044</x:v>
+        <x:v>24046</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3215</x:v>
+        <x:v>3216</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6625</x:v>
+        <x:v>6626</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2514</x:v>
+        <x:v>2519</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2270</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4784</x:v>
+        <x:v>4789</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6544</x:v>
+        <x:v>6543</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5622</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12166</x:v>
+        <x:v>12165</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -438,10 +438,10 @@
         <x:v>7021</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6828</x:v>
+        <x:v>6829</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13849</x:v>
+        <x:v>13850</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8178</x:v>
+        <x:v>8180</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5983</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14161</x:v>
+        <x:v>14163</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5995</x:v>
+        <x:v>5996</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8787</x:v>
+        <x:v>8788</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14635</x:v>
+        <x:v>14637</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9411</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24046</x:v>
+        <x:v>24048</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6543</x:v>
+        <x:v>6544</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5622</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12165</x:v>
+        <x:v>12166</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7021</x:v>
+        <x:v>7022</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6829</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13850</x:v>
+        <x:v>13851</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5003</x:v>
+        <x:v>5005</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5652</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10655</x:v>
+        <x:v>10657</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14637</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9411</x:v>
+        <x:v>9412</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24048</x:v>
+        <x:v>24049</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6544</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5622</x:v>
+        <x:v>5623</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12166</x:v>
+        <x:v>12167</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7022</x:v>
+        <x:v>7027</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6829</x:v>
+        <x:v>6832</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13851</x:v>
+        <x:v>13859</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8180</x:v>
+        <x:v>8179</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5983</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14163</x:v>
+        <x:v>14162</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5005</x:v>
+        <x:v>5008</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5652</x:v>
+        <x:v>5653</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10657</x:v>
+        <x:v>10661</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14637</x:v>
+        <x:v>14642</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9412</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24049</x:v>
+        <x:v>24054</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6544</x:v>
+        <x:v>6545</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5623</x:v>
+        <x:v>5624</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12167</x:v>
+        <x:v>12169</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>1229</x:v>
+        <x:v>1230</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>1120</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2349</x:v>
+        <x:v>2350</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3423</x:v>
+        <x:v>3426</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3628</x:v>
+        <x:v>3629</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7051</x:v>
+        <x:v>7055</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7027</x:v>
+        <x:v>7025</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6832</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13859</x:v>
+        <x:v>13857</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8179</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5983</x:v>
+        <x:v>5984</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14162</x:v>
+        <x:v>14163</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5996</x:v>
+        <x:v>5997</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8788</x:v>
+        <x:v>8789</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14642</x:v>
+        <x:v>14645</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9412</x:v>
+        <x:v>9413</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24054</x:v>
+        <x:v>24058</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6545</x:v>
+        <x:v>6546</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5624</x:v>
+        <x:v>5626</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12169</x:v>
+        <x:v>12172</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7025</x:v>
+        <x:v>7024</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6832</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13857</x:v>
+        <x:v>13856</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8179</x:v>
+        <x:v>8182</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5984</x:v>
+        <x:v>5987</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14163</x:v>
+        <x:v>14169</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5008</x:v>
+        <x:v>5009</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5653</x:v>
+        <x:v>5654</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10661</x:v>
+        <x:v>10663</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14645</x:v>
+        <x:v>14650</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9413</x:v>
+        <x:v>9416</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24058</x:v>
+        <x:v>24066</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3216</x:v>
+        <x:v>3217</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6626</x:v>
+        <x:v>6627</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6546</x:v>
+        <x:v>6548</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5626</x:v>
+        <x:v>5627</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12172</x:v>
+        <x:v>12175</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>1230</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1120</x:v>
+        <x:v>1121</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2350</x:v>
+        <x:v>2351</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3426</x:v>
+        <x:v>3427</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3629</x:v>
+        <x:v>3630</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7055</x:v>
+        <x:v>7057</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7024</x:v>
+        <x:v>7028</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6832</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13856</x:v>
+        <x:v>13860</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8182</x:v>
+        <x:v>8181</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>5987</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14169</x:v>
+        <x:v>14168</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5997</x:v>
+        <x:v>5996</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8789</x:v>
+        <x:v>8788</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5009</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5654</x:v>
+        <x:v>5655</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10663</x:v>
+        <x:v>10664</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14650</x:v>
+        <x:v>14662</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9416</x:v>
+        <x:v>9415</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24066</x:v>
+        <x:v>24077</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3217</x:v>
+        <x:v>3218</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6627</x:v>
+        <x:v>6628</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2519</x:v>
+        <x:v>2528</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2270</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4789</x:v>
+        <x:v>4798</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6548</x:v>
+        <x:v>6555</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5627</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12175</x:v>
+        <x:v>12182</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7028</x:v>
+        <x:v>7037</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6832</x:v>
+        <x:v>6836</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13860</x:v>
+        <x:v>13873</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5009</x:v>
+        <x:v>5010</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5655</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10664</x:v>
+        <x:v>10665</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14662</x:v>
+        <x:v>14672</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9415</x:v>
+        <x:v>9417</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24077</x:v>
+        <x:v>24089</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2528</x:v>
+        <x:v>2529</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2270</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4798</x:v>
+        <x:v>4799</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6555</x:v>
+        <x:v>6559</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5627</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12182</x:v>
+        <x:v>12186</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7037</x:v>
+        <x:v>7040</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6836</x:v>
+        <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13873</x:v>
+        <x:v>13877</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8181</x:v>
+        <x:v>8178</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>5987</x:v>
+        <x:v>6009</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14168</x:v>
+        <x:v>14187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>5010</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5655</x:v>
+        <x:v>5657</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10665</x:v>
+        <x:v>10667</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14672</x:v>
+        <x:v>14704</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9417</x:v>
+        <x:v>9423</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24089</x:v>
+        <x:v>24127</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6559</x:v>
+        <x:v>6575</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5627</x:v>
+        <x:v>5637</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12186</x:v>
+        <x:v>12212</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3427</x:v>
+        <x:v>3428</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>3630</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7057</x:v>
+        <x:v>7058</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7040</x:v>
+        <x:v>7041</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13877</x:v>
+        <x:v>13878</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5996</x:v>
+        <x:v>5997</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8788</x:v>
+        <x:v>8789</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5010</x:v>
+        <x:v>5011</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5657</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10667</x:v>
+        <x:v>10668</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14704</x:v>
+        <x:v>14710</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9423</x:v>
+        <x:v>9424</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24127</x:v>
+        <x:v>24134</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6575</x:v>
+        <x:v>6576</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5637</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12212</x:v>
+        <x:v>12213</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7041</x:v>
+        <x:v>7040</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13878</x:v>
+        <x:v>13877</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8178</x:v>
+        <x:v>8177</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6009</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14187</x:v>
+        <x:v>14186</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5011</x:v>
+        <x:v>5012</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5657</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10668</x:v>
+        <x:v>10669</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14710</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9424</x:v>
+        <x:v>9425</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24134</x:v>
+        <x:v>24135</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3218</x:v>
+        <x:v>3219</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6628</x:v>
+        <x:v>6629</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6576</x:v>
+        <x:v>6578</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5637</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12213</x:v>
+        <x:v>12215</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -452,10 +452,10 @@
         <x:v>8177</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6009</x:v>
+        <x:v>6010</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14186</x:v>
+        <x:v>14187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14710</x:v>
+        <x:v>14711</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9425</x:v>
+        <x:v>9426</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24135</x:v>
+        <x:v>24137</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7040</x:v>
+        <x:v>7039</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13877</x:v>
+        <x:v>13876</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8177</x:v>
+        <x:v>8173</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6010</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14187</x:v>
+        <x:v>14183</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5012</x:v>
+        <x:v>5013</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5657</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10669</x:v>
+        <x:v>10670</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14711</x:v>
+        <x:v>14712</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9426</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24137</x:v>
+        <x:v>24138</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5997</x:v>
+        <x:v>5998</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8789</x:v>
+        <x:v>8790</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5013</x:v>
+        <x:v>5014</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5657</x:v>
+        <x:v>5663</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10670</x:v>
+        <x:v>10677</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14712</x:v>
+        <x:v>14717</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9426</x:v>
+        <x:v>9427</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24138</x:v>
+        <x:v>24144</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6578</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5637</x:v>
+        <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12215</x:v>
+        <x:v>12216</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14717</x:v>
+        <x:v>14718</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9427</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24144</x:v>
+        <x:v>24145</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3219</x:v>
+        <x:v>3220</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6629</x:v>
+        <x:v>6630</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7039</x:v>
+        <x:v>7040</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13876</x:v>
+        <x:v>13877</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5014</x:v>
+        <x:v>5015</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5663</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10677</x:v>
+        <x:v>10678</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14718</x:v>
+        <x:v>14721</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9427</x:v>
+        <x:v>9428</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24145</x:v>
+        <x:v>24149</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7040</x:v>
+        <x:v>7041</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13877</x:v>
+        <x:v>13878</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8173</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6010</x:v>
+        <x:v>6011</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14183</x:v>
+        <x:v>14184</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5015</x:v>
+        <x:v>5017</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5663</x:v>
+        <x:v>5664</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10678</x:v>
+        <x:v>10681</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14721</x:v>
+        <x:v>14747</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9428</x:v>
+        <x:v>9436</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24149</x:v>
+        <x:v>24183</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2529</x:v>
+        <x:v>2536</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2270</x:v>
+        <x:v>2272</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4799</x:v>
+        <x:v>4808</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3428</x:v>
+        <x:v>3430</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3630</x:v>
+        <x:v>3629</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7058</x:v>
+        <x:v>7059</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7041</x:v>
+        <x:v>7042</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13878</x:v>
+        <x:v>13879</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8173</x:v>
+        <x:v>8172</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6011</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14184</x:v>
+        <x:v>14183</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5017</x:v>
+        <x:v>5018</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5664</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10681</x:v>
+        <x:v>10682</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14747</x:v>
+        <x:v>14750</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9436</x:v>
+        <x:v>9438</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24183</x:v>
+        <x:v>24188</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>3430</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3629</x:v>
+        <x:v>3633</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7059</x:v>
+        <x:v>7063</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7042</x:v>
+        <x:v>7041</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6837</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13879</x:v>
+        <x:v>13878</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8172</x:v>
+        <x:v>8171</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6011</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14183</x:v>
+        <x:v>14182</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5018</x:v>
+        <x:v>4988</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5664</x:v>
+        <x:v>5663</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10682</x:v>
+        <x:v>10651</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14750</x:v>
+        <x:v>14751</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9438</x:v>
+        <x:v>9439</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24188</x:v>
+        <x:v>24190</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6578</x:v>
+        <x:v>6580</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12216</x:v>
+        <x:v>12218</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -480,10 +480,10 @@
         <x:v>4988</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5663</x:v>
+        <x:v>5665</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10651</x:v>
+        <x:v>10653</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14751</x:v>
+        <x:v>14752</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9439</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24190</x:v>
+        <x:v>24191</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -564,10 +564,10 @@
         <x:v>3430</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3633</x:v>
+        <x:v>3634</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7063</x:v>
+        <x:v>7064</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4988</x:v>
+        <x:v>4978</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5665</x:v>
+        <x:v>5671</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10653</x:v>
+        <x:v>10649</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,10 +435,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7041</x:v>
+        <x:v>7040</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6837</x:v>
+        <x:v>6838</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
         <x:v>13878</x:v>
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14752</x:v>
+        <x:v>14766</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9439</x:v>
+        <x:v>9441</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24191</x:v>
+        <x:v>24207</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3220</x:v>
+        <x:v>3221</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6630</x:v>
+        <x:v>6631</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6580</x:v>
+        <x:v>6581</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12218</x:v>
+        <x:v>12219</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -452,10 +452,10 @@
         <x:v>8171</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6011</x:v>
+        <x:v>6012</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14182</x:v>
+        <x:v>14183</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4978</x:v>
+        <x:v>4980</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5671</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10649</x:v>
+        <x:v>10651</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14766</x:v>
+        <x:v>14769</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9441</x:v>
+        <x:v>9442</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24207</x:v>
+        <x:v>24211</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7040</x:v>
+        <x:v>7041</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6838</x:v>
+        <x:v>6839</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13878</x:v>
+        <x:v>13880</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4980</x:v>
+        <x:v>4975</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5671</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10651</x:v>
+        <x:v>10646</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14769</x:v>
+        <x:v>14771</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9442</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24211</x:v>
+        <x:v>24213</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>3221</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3410</x:v>
+        <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6631</x:v>
+        <x:v>6630</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2536</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2272</x:v>
+        <x:v>2273</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4808</x:v>
+        <x:v>4809</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>1230</x:v>
+        <x:v>1231</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>1121</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2351</x:v>
+        <x:v>2352</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8171</x:v>
+        <x:v>8173</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6012</x:v>
+        <x:v>6013</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14183</x:v>
+        <x:v>14186</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14771</x:v>
+        <x:v>14772</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9442</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24213</x:v>
+        <x:v>24214</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3221</x:v>
+        <x:v>3222</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6630</x:v>
+        <x:v>6631</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,10 +519,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2536</x:v>
+        <x:v>2535</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2273</x:v>
+        <x:v>2274</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4809</x:v>
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6581</x:v>
+        <x:v>6582</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12219</x:v>
+        <x:v>12220</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7041</x:v>
+        <x:v>7042</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6839</x:v>
+        <x:v>6841</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13880</x:v>
+        <x:v>13883</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14772</x:v>
+        <x:v>14773</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9442</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24214</x:v>
+        <x:v>24215</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7042</x:v>
+        <x:v>7044</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6841</x:v>
+        <x:v>6843</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13883</x:v>
+        <x:v>13887</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14773</x:v>
+        <x:v>14774</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9442</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24215</x:v>
+        <x:v>24216</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8173</x:v>
+        <x:v>8174</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6013</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14186</x:v>
+        <x:v>14187</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4975</x:v>
+        <x:v>4977</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5671</x:v>
+        <x:v>5673</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10646</x:v>
+        <x:v>10650</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14774</x:v>
+        <x:v>14783</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9442</x:v>
+        <x:v>9444</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24216</x:v>
+        <x:v>24227</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6582</x:v>
+        <x:v>6585</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12220</x:v>
+        <x:v>12223</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4977</x:v>
+        <x:v>4978</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5673</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10650</x:v>
+        <x:v>10651</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14783</x:v>
+        <x:v>14786</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9444</x:v>
+        <x:v>9446</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24227</x:v>
+        <x:v>24232</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7044</x:v>
+        <x:v>7045</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6843</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13887</x:v>
+        <x:v>13888</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>4978</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5673</x:v>
+        <x:v>5674</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10651</x:v>
+        <x:v>10652</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14786</x:v>
+        <x:v>14788</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9446</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24232</x:v>
+        <x:v>24234</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3430</x:v>
+        <x:v>3429</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
         <x:v>3634</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7064</x:v>
+        <x:v>7063</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7045</x:v>
+        <x:v>7046</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6843</x:v>
+        <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13888</x:v>
+        <x:v>13890</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8174</x:v>
+        <x:v>8183</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6013</x:v>
+        <x:v>6014</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14187</x:v>
+        <x:v>14197</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14788</x:v>
+        <x:v>14792</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9446</x:v>
+        <x:v>9447</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24234</x:v>
+        <x:v>24239</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8183</x:v>
+        <x:v>8194</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6014</x:v>
+        <x:v>6015</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14197</x:v>
+        <x:v>14209</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3222</x:v>
+        <x:v>3223</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6631</x:v>
+        <x:v>6632</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2535</x:v>
+        <x:v>2558</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2274</x:v>
+        <x:v>2280</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4809</x:v>
+        <x:v>4838</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8194</x:v>
+        <x:v>8196</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6015</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14209</x:v>
+        <x:v>14211</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>4978</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5674</x:v>
+        <x:v>5675</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10652</x:v>
+        <x:v>10653</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14792</x:v>
+        <x:v>14794</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9447</x:v>
+        <x:v>9448</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24239</x:v>
+        <x:v>24242</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3223</x:v>
+        <x:v>3225</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3409</x:v>
+        <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6632</x:v>
+        <x:v>6635</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2558</x:v>
+        <x:v>2559</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2280</x:v>
+        <x:v>2281</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4838</x:v>
+        <x:v>4840</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6585</x:v>
+        <x:v>6587</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12223</x:v>
+        <x:v>12225</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8196</x:v>
+        <x:v>8197</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6015</x:v>
+        <x:v>6016</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14211</x:v>
+        <x:v>14213</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8197</x:v>
+        <x:v>8196</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6016</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14213</x:v>
+        <x:v>14212</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14794</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9448</x:v>
+        <x:v>9449</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24242</x:v>
+        <x:v>24243</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2559</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2281</x:v>
+        <x:v>2282</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4840</x:v>
+        <x:v>4841</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6587</x:v>
+        <x:v>6588</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5638</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12225</x:v>
+        <x:v>12226</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7046</x:v>
+        <x:v>7045</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13890</x:v>
+        <x:v>13889</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,10 +449,10 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8196</x:v>
+        <x:v>8195</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6016</x:v>
+        <x:v>6017</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
         <x:v>14212</x:v>
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14794</x:v>
+        <x:v>14802</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9449</x:v>
+        <x:v>9451</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24243</x:v>
+        <x:v>24253</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2559</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2282</x:v>
+        <x:v>2281</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4841</x:v>
+        <x:v>4840</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -452,10 +452,10 @@
         <x:v>8195</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6017</x:v>
+        <x:v>6018</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14212</x:v>
+        <x:v>14213</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14802</x:v>
+        <x:v>14806</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9451</x:v>
+        <x:v>9452</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24253</x:v>
+        <x:v>24258</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2559</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2281</x:v>
+        <x:v>2283</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4840</x:v>
+        <x:v>4842</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7045</x:v>
+        <x:v>7049</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13889</x:v>
+        <x:v>13893</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7049</x:v>
+        <x:v>7056</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6844</x:v>
+        <x:v>6845</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13893</x:v>
+        <x:v>13901</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8195</x:v>
+        <x:v>8197</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6018</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14213</x:v>
+        <x:v>14215</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4978</x:v>
+        <x:v>4981</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5675</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10653</x:v>
+        <x:v>10656</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14806</x:v>
+        <x:v>14807</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9452</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24258</x:v>
+        <x:v>24259</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7056</x:v>
+        <x:v>7057</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6845</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13901</x:v>
+        <x:v>13902</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8197</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6018</x:v>
+        <x:v>6019</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14215</x:v>
+        <x:v>14216</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14807</x:v>
+        <x:v>14806</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9452</x:v>
+        <x:v>9451</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24259</x:v>
+        <x:v>24257</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3225</x:v>
+        <x:v>3226</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6635</x:v>
+        <x:v>6636</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6588</x:v>
+        <x:v>6624</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5638</x:v>
+        <x:v>5641</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12226</x:v>
+        <x:v>12265</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7057</x:v>
+        <x:v>7058</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6845</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13902</x:v>
+        <x:v>13903</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14806</x:v>
+        <x:v>14809</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9451</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24257</x:v>
+        <x:v>24260</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -438,10 +438,10 @@
         <x:v>7058</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6845</x:v>
+        <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13903</x:v>
+        <x:v>13902</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -480,10 +480,10 @@
         <x:v>4981</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5675</x:v>
+        <x:v>5677</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10656</x:v>
+        <x:v>10658</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2559</x:v>
+        <x:v>2560</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2283</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4842</x:v>
+        <x:v>4843</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6624</x:v>
+        <x:v>6625</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5641</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12265</x:v>
+        <x:v>12266</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
@@ -547,13 +547,13 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B10" s="1" t="n">
-        <x:v>1231</x:v>
+        <x:v>1232</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
         <x:v>1121</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2352</x:v>
+        <x:v>2353</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7058</x:v>
+        <x:v>7061</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13902</x:v>
+        <x:v>13905</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8197</x:v>
+        <x:v>8185</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6019</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14216</x:v>
+        <x:v>14204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14809</x:v>
+        <x:v>14811</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9451</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24260</x:v>
+        <x:v>24262</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8185</x:v>
+        <x:v>8184</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6019</x:v>
+        <x:v>6021</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14204</x:v>
+        <x:v>14205</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14811</x:v>
+        <x:v>14814</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9451</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24262</x:v>
+        <x:v>24265</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2560</x:v>
+        <x:v>2564</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2283</x:v>
+        <x:v>2289</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4843</x:v>
+        <x:v>4853</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6625</x:v>
+        <x:v>6626</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5641</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12266</x:v>
+        <x:v>12267</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8184</x:v>
+        <x:v>8177</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6021</x:v>
+        <x:v>6023</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14205</x:v>
+        <x:v>14200</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4981</x:v>
+        <x:v>4984</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5677</x:v>
+        <x:v>5683</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10658</x:v>
+        <x:v>10667</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14814</x:v>
+        <x:v>14817</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9451</x:v>
+        <x:v>9453</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24265</x:v>
+        <x:v>24270</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,10 +519,10 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2564</x:v>
+        <x:v>2566</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2289</x:v>
+        <x:v>2287</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
         <x:v>4853</x:v>
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6626</x:v>
+        <x:v>6627</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5641</x:v>
+        <x:v>5642</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12267</x:v>
+        <x:v>12269</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7061</x:v>
+        <x:v>7063</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13905</x:v>
+        <x:v>13907</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8177</x:v>
+        <x:v>8175</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6023</x:v>
+        <x:v>6022</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14200</x:v>
+        <x:v>14197</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14817</x:v>
+        <x:v>14819</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9453</x:v>
+        <x:v>9454</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24270</x:v>
+        <x:v>24273</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6627</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5642</x:v>
+        <x:v>5643</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12269</x:v>
+        <x:v>12270</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8175</x:v>
+        <x:v>8176</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6022</x:v>
+        <x:v>6023</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14197</x:v>
+        <x:v>14199</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4984</x:v>
+        <x:v>4986</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5683</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10667</x:v>
+        <x:v>10669</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14819</x:v>
+        <x:v>14823</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9454</x:v>
+        <x:v>9455</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24273</x:v>
+        <x:v>24278</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -561,13 +561,13 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="B11" s="1" t="n">
-        <x:v>3429</x:v>
+        <x:v>3430</x:v>
       </x:c>
       <x:c r="C11" s="1" t="n">
-        <x:v>3634</x:v>
+        <x:v>3635</x:v>
       </x:c>
       <x:c r="D11" s="1" t="n">
-        <x:v>7063</x:v>
+        <x:v>7065</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8176</x:v>
+        <x:v>8179</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6023</x:v>
+        <x:v>6025</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14199</x:v>
+        <x:v>14204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14823</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9455</x:v>
+        <x:v>9456</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24278</x:v>
+        <x:v>24279</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7063</x:v>
+        <x:v>7061</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13907</x:v>
+        <x:v>13905</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8179</x:v>
+        <x:v>8181</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6025</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14204</x:v>
+        <x:v>14206</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4986</x:v>
+        <x:v>4985</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5683</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10669</x:v>
+        <x:v>10668</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14823</x:v>
+        <x:v>14824</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9456</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24279</x:v>
+        <x:v>24280</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6627</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5643</x:v>
+        <x:v>5644</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12270</x:v>
+        <x:v>12271</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7061</x:v>
+        <x:v>7065</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6844</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13905</x:v>
+        <x:v>13909</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14824</x:v>
+        <x:v>14827</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9456</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24280</x:v>
+        <x:v>24283</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -550,10 +550,10 @@
         <x:v>1232</x:v>
       </x:c>
       <x:c r="C10" s="1" t="n">
-        <x:v>1121</x:v>
+        <x:v>1123</x:v>
       </x:c>
       <x:c r="D10" s="1" t="n">
-        <x:v>2353</x:v>
+        <x:v>2355</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7065</x:v>
+        <x:v>7068</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6844</x:v>
+        <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13909</x:v>
+        <x:v>13914</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14827</x:v>
+        <x:v>14830</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9456</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24283</x:v>
+        <x:v>24286</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3226</x:v>
+        <x:v>3225</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3410</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6636</x:v>
+        <x:v>6635</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6627</x:v>
+        <x:v>6628</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5644</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12271</x:v>
+        <x:v>12272</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7068</x:v>
+        <x:v>7070</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13914</x:v>
+        <x:v>13916</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8181</x:v>
+        <x:v>8178</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6025</x:v>
+        <x:v>6024</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14206</x:v>
+        <x:v>14202</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14830</x:v>
+        <x:v>14833</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9456</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24286</x:v>
+        <x:v>24289</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -508,10 +508,10 @@
         <x:v>3225</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
-        <x:v>3410</x:v>
+        <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6635</x:v>
+        <x:v>6634</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6628</x:v>
+        <x:v>6629</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
         <x:v>5644</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12272</x:v>
+        <x:v>12273</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7070</x:v>
+        <x:v>7076</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6846</x:v>
+        <x:v>6845</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13916</x:v>
+        <x:v>13921</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8178</x:v>
+        <x:v>8179</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6024</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14202</x:v>
+        <x:v>14203</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5998</x:v>
+        <x:v>5999</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8790</x:v>
+        <x:v>8791</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4985</x:v>
+        <x:v>4986</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5683</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10668</x:v>
+        <x:v>10669</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14833</x:v>
+        <x:v>14834</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9456</x:v>
+        <x:v>9457</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24289</x:v>
+        <x:v>24291</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>4986</x:v>
+        <x:v>5021</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5683</x:v>
+        <x:v>5692</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10669</x:v>
+        <x:v>10713</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14834</x:v>
+        <x:v>14836</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9457</x:v>
+        <x:v>9458</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24291</x:v>
+        <x:v>24294</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7076</x:v>
+        <x:v>7077</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
-        <x:v>6845</x:v>
+        <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13921</x:v>
+        <x:v>13923</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8179</x:v>
+        <x:v>8183</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6024</x:v>
+        <x:v>6026</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14203</x:v>
+        <x:v>14209</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14836</x:v>
+        <x:v>14839</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9458</x:v>
+        <x:v>9459</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24294</x:v>
+        <x:v>24298</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2566</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2287</x:v>
+        <x:v>2290</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4853</x:v>
+        <x:v>4856</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8183</x:v>
+        <x:v>8184</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6026</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14209</x:v>
+        <x:v>14210</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14839</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9459</x:v>
+        <x:v>9460</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24298</x:v>
+        <x:v>24299</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7077</x:v>
+        <x:v>7082</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13923</x:v>
+        <x:v>13928</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14839</x:v>
+        <x:v>14842</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9460</x:v>
+        <x:v>9462</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24299</x:v>
+        <x:v>24304</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7082</x:v>
+        <x:v>7083</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13928</x:v>
+        <x:v>13929</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8184</x:v>
+        <x:v>8182</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6026</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14210</x:v>
+        <x:v>14208</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14842</x:v>
+        <x:v>14854</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9462</x:v>
+        <x:v>9464</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24304</x:v>
+        <x:v>24318</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -522,10 +522,10 @@
         <x:v>2566</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2290</x:v>
+        <x:v>2292</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4856</x:v>
+        <x:v>4858</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -536,10 +536,10 @@
         <x:v>6629</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5644</x:v>
+        <x:v>5645</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12273</x:v>
+        <x:v>12274</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8182</x:v>
+        <x:v>8181</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6026</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14208</x:v>
+        <x:v>14207</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -494,10 +494,10 @@
         <x:v>14854</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9464</x:v>
+        <x:v>9463</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24318</x:v>
+        <x:v>24317</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>5999</x:v>
+        <x:v>6000</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8791</x:v>
+        <x:v>8792</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2566</x:v>
+        <x:v>2567</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2292</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4858</x:v>
+        <x:v>4859</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8181</x:v>
+        <x:v>8178</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6026</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14207</x:v>
+        <x:v>14204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14854</x:v>
+        <x:v>14855</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9463</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24317</x:v>
+        <x:v>24318</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7083</x:v>
+        <x:v>7085</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13929</x:v>
+        <x:v>13931</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8178</x:v>
+        <x:v>8176</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6026</x:v>
+        <x:v>6029</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14204</x:v>
+        <x:v>14205</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5021</x:v>
+        <x:v>5025</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5692</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10713</x:v>
+        <x:v>10717</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14855</x:v>
+        <x:v>14862</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9463</x:v>
+        <x:v>9469</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24318</x:v>
+        <x:v>24331</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3225</x:v>
+        <x:v>3226</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6634</x:v>
+        <x:v>6635</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2567</x:v>
+        <x:v>2570</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
-        <x:v>2292</x:v>
+        <x:v>2293</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4859</x:v>
+        <x:v>4863</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6629</x:v>
+        <x:v>6630</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5645</x:v>
+        <x:v>5646</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12274</x:v>
+        <x:v>12276</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8176</x:v>
+        <x:v>8175</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6029</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14205</x:v>
+        <x:v>14204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14862</x:v>
+        <x:v>14870</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9469</x:v>
+        <x:v>9472</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24331</x:v>
+        <x:v>24342</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6630</x:v>
+        <x:v>6631</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5646</x:v>
+        <x:v>5647</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12276</x:v>
+        <x:v>12278</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7085</x:v>
+        <x:v>7086</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13931</x:v>
+        <x:v>13932</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5025</x:v>
+        <x:v>5027</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5692</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10717</x:v>
+        <x:v>10719</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14870</x:v>
+        <x:v>14873</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9472</x:v>
+        <x:v>9473</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24342</x:v>
+        <x:v>24346</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7086</x:v>
+        <x:v>7089</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13932</x:v>
+        <x:v>13935</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -452,10 +452,10 @@
         <x:v>8175</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6029</x:v>
+        <x:v>6030</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14204</x:v>
+        <x:v>14205</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5027</x:v>
+        <x:v>5028</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5692</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10719</x:v>
+        <x:v>10720</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14873</x:v>
+        <x:v>14877</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9473</x:v>
+        <x:v>9474</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24346</x:v>
+        <x:v>24351</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3226</x:v>
+        <x:v>3227</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6635</x:v>
+        <x:v>6636</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -435,13 +435,13 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="1" t="n">
-        <x:v>7089</x:v>
+        <x:v>7088</x:v>
       </x:c>
       <x:c r="C2" s="1" t="n">
         <x:v>6846</x:v>
       </x:c>
       <x:c r="D2" s="1" t="n">
-        <x:v>13935</x:v>
+        <x:v>13934</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8175</x:v>
+        <x:v>8174</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6030</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14205</x:v>
+        <x:v>14204</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -463,13 +463,13 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B4" s="1" t="n">
-        <x:v>6000</x:v>
+        <x:v>6001</x:v>
       </x:c>
       <x:c r="C4" s="1" t="n">
         <x:v>2792</x:v>
       </x:c>
       <x:c r="D4" s="1" t="n">
-        <x:v>8792</x:v>
+        <x:v>8793</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14877</x:v>
+        <x:v>14884</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9474</x:v>
+        <x:v>9476</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24351</x:v>
+        <x:v>24360</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2570</x:v>
+        <x:v>2571</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2293</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4863</x:v>
+        <x:v>4864</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -477,13 +477,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5028</x:v>
+        <x:v>5032</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
         <x:v>5692</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
-        <x:v>10720</x:v>
+        <x:v>10724</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
@@ -491,10 +491,10 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14884</x:v>
+        <x:v>14885</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
-        <x:v>9476</x:v>
+        <x:v>9475</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
         <x:v>24360</x:v>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8174</x:v>
+        <x:v>8173</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
         <x:v>6030</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14204</x:v>
+        <x:v>14203</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14885</x:v>
+        <x:v>14886</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9475</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24360</x:v>
+        <x:v>24361</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -505,13 +505,13 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B7" s="1" t="n">
-        <x:v>3227</x:v>
+        <x:v>3228</x:v>
       </x:c>
       <x:c r="C7" s="1" t="n">
         <x:v>3409</x:v>
       </x:c>
       <x:c r="D7" s="1" t="n">
-        <x:v>6636</x:v>
+        <x:v>6637</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -449,13 +449,13 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3" s="1" t="n">
-        <x:v>8173</x:v>
+        <x:v>8175</x:v>
       </x:c>
       <x:c r="C3" s="1" t="n">
-        <x:v>6030</x:v>
+        <x:v>6031</x:v>
       </x:c>
       <x:c r="D3" s="1" t="n">
-        <x:v>14203</x:v>
+        <x:v>14206</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14886</x:v>
+        <x:v>14893</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9475</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24361</x:v>
+        <x:v>24368</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
@@ -519,13 +519,13 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B8" s="1" t="n">
-        <x:v>2571</x:v>
+        <x:v>2575</x:v>
       </x:c>
       <x:c r="C8" s="1" t="n">
         <x:v>2293</x:v>
       </x:c>
       <x:c r="D8" s="1" t="n">
-        <x:v>4864</x:v>
+        <x:v>4868</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
@@ -533,13 +533,13 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B9" s="1" t="n">
-        <x:v>6631</x:v>
+        <x:v>6633</x:v>
       </x:c>
       <x:c r="C9" s="1" t="n">
-        <x:v>5647</x:v>
+        <x:v>5651</x:v>
       </x:c>
       <x:c r="D9" s="1" t="n">
-        <x:v>12278</x:v>
+        <x:v>12284</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -477,10 +477,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B5" s="1" t="n">
-        <x:v>5032</x:v>
+        <x:v>5033</x:v>
       </x:c>
       <x:c r="C5" s="1" t="n">
-        <x:v>5692</x:v>
+        <x:v>5691</x:v>
       </x:c>
       <x:c r="D5" s="1" t="n">
         <x:v>10724</x:v>
@@ -491,13 +491,13 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B6" s="1" t="n">
-        <x:v>14893</x:v>
+        <x:v>14894</x:v>
       </x:c>
       <x:c r="C6" s="1" t="n">
         <x:v>9475</x:v>
       </x:c>
       <x:c r="D6" s="1" t="n">
-        <x:v>24368</x:v>
+        <x:v>24369</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Arrests by Judicial Districts" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Arrests by Judicial Districts" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Judicial District</x:t>
   </x:si>
@@ -26,6 +26,126 @@
   </x:si>
   <x:si>
     <x:t>Grand Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7090</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8173</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14206</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2792</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8795</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5032</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5691</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10723</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9479</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3228</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3409</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6637</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2575</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2294</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12286</x:t>
+  </x:si>
+  <x:si>
+    <x:t>8</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1232</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1123</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2355</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3430</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3635</x:t>
+  </x:si>
+  <x:si>
+    <x:t>7065</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -34,7 +154,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,###,##0"/>
+    <x:numFmt numFmtId="164" formatCode="#,###,##0"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -84,13 +204,13 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -99,7 +219,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -107,7 +227,7 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -402,7 +522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
@@ -431,143 +551,143 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:4">
-      <x:c r="A2" s="0" t="n">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="B2" s="1" t="n">
-        <x:v>7088</x:v>
-      </x:c>
-      <x:c r="C2" s="1" t="n">
-        <x:v>6846</x:v>
-      </x:c>
-      <x:c r="D2" s="1" t="n">
-        <x:v>13934</x:v>
+      <x:c r="A2" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B2" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C2" s="1" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D2" s="1" t="s">
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="3" spans="1:4">
-      <x:c r="A3" s="0" t="n">
+      <x:c r="A3" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B3" s="1" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="C3" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B3" s="1" t="n">
-        <x:v>8175</x:v>
-      </x:c>
-      <x:c r="C3" s="1" t="n">
-        <x:v>6031</x:v>
-      </x:c>
-      <x:c r="D3" s="1" t="n">
-        <x:v>14206</x:v>
+      <x:c r="D3" s="1" t="s">
+        <x:v>11</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:4">
-      <x:c r="A4" s="0" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="B4" s="1" t="n">
-        <x:v>6001</x:v>
-      </x:c>
-      <x:c r="C4" s="1" t="n">
-        <x:v>2792</x:v>
-      </x:c>
-      <x:c r="D4" s="1" t="n">
-        <x:v>8793</x:v>
+      <x:c r="A4" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B4" s="1" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="C4" s="1" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D4" s="1" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:4">
-      <x:c r="A5" s="0" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B5" s="1" t="n">
-        <x:v>5033</x:v>
-      </x:c>
-      <x:c r="C5" s="1" t="n">
-        <x:v>5691</x:v>
-      </x:c>
-      <x:c r="D5" s="1" t="n">
-        <x:v>10724</x:v>
+      <x:c r="A5" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B5" s="1" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C5" s="1" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D5" s="1" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:4">
-      <x:c r="A6" s="0" t="n">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="B6" s="1" t="n">
-        <x:v>14894</x:v>
-      </x:c>
-      <x:c r="C6" s="1" t="n">
-        <x:v>9475</x:v>
-      </x:c>
-      <x:c r="D6" s="1" t="n">
-        <x:v>24369</x:v>
+      <x:c r="A6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="1" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="1" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="1" t="s">
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:4">
-      <x:c r="A7" s="0" t="n">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B7" s="1" t="n">
-        <x:v>3228</x:v>
-      </x:c>
-      <x:c r="C7" s="1" t="n">
-        <x:v>3409</x:v>
-      </x:c>
-      <x:c r="D7" s="1" t="n">
-        <x:v>6637</x:v>
+      <x:c r="A7" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="B7" s="1" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C7" s="1" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D7" s="1" t="s">
+        <x:v>27</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:4">
-      <x:c r="A8" s="0" t="n">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B8" s="1" t="n">
-        <x:v>2575</x:v>
-      </x:c>
-      <x:c r="C8" s="1" t="n">
-        <x:v>2293</x:v>
-      </x:c>
-      <x:c r="D8" s="1" t="n">
-        <x:v>4868</x:v>
+      <x:c r="A8" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B8" s="1" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C8" s="1" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="D8" s="1" t="s">
+        <x:v>31</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:4">
-      <x:c r="A9" s="0" t="n">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B9" s="1" t="n">
-        <x:v>6633</x:v>
-      </x:c>
-      <x:c r="C9" s="1" t="n">
-        <x:v>5651</x:v>
-      </x:c>
-      <x:c r="D9" s="1" t="n">
-        <x:v>12284</x:v>
+      <x:c r="A9" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="B9" s="1" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C9" s="1" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="D9" s="1" t="s">
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:4">
-      <x:c r="A10" s="0" t="n">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="n">
-        <x:v>1232</x:v>
-      </x:c>
-      <x:c r="C10" s="1" t="n">
-        <x:v>1123</x:v>
-      </x:c>
-      <x:c r="D10" s="1" t="n">
-        <x:v>2355</x:v>
+      <x:c r="A10" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C10" s="1" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="D10" s="1" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:4">
-      <x:c r="A11" s="0" t="n">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B11" s="1" t="n">
-        <x:v>3430</x:v>
-      </x:c>
-      <x:c r="C11" s="1" t="n">
-        <x:v>3635</x:v>
-      </x:c>
-      <x:c r="D11" s="1" t="n">
-        <x:v>7065</x:v>
+      <x:c r="A11" s="0" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B11" s="1" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C11" s="1" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="D11" s="1" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6033</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14206</x:t>
+    <x:t>8175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14209</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -94,10 +94,10 @@
     <x:t>3228</x:t>
   </x:si>
   <x:si>
-    <x:t>3409</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6637</x:t>
+    <x:t>3410</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6638</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6635</x:t>
+    <x:t>6636</x:t>
   </x:si>
   <x:si>
     <x:t>5651</x:t>
   </x:si>
   <x:si>
-    <x:t>12286</x:t>
+    <x:t>12287</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,25 +31,25 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7090</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13936</x:t>
+    <x:t>7091</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13939</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8175</x:t>
+    <x:t>8177</x:t>
   </x:si>
   <x:si>
     <x:t>6034</x:t>
   </x:si>
   <x:si>
-    <x:t>14209</x:t>
+    <x:t>14211</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,25 +79,25 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14906</x:t>
+    <x:t>14909</x:t>
   </x:si>
   <x:si>
     <x:t>9479</x:t>
   </x:si>
   <x:si>
-    <x:t>24385</x:t>
+    <x:t>24388</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3228</x:t>
+    <x:t>3229</x:t>
   </x:si>
   <x:si>
     <x:t>3410</x:t>
   </x:si>
   <x:si>
-    <x:t>6638</x:t>
+    <x:t>6639</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7091</x:t>
+    <x:t>7095</x:t>
   </x:si>
   <x:si>
     <x:t>6848</x:t>
   </x:si>
   <x:si>
-    <x:t>13939</x:t>
+    <x:t>13943</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -79,25 +79,25 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14909</x:t>
+    <x:t>14912</x:t>
   </x:si>
   <x:si>
     <x:t>9479</x:t>
   </x:si>
   <x:si>
-    <x:t>24388</x:t>
+    <x:t>24391</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3229</x:t>
+    <x:t>3230</x:t>
   </x:si>
   <x:si>
     <x:t>3410</x:t>
   </x:si>
   <x:si>
-    <x:t>6639</x:t>
+    <x:t>6640</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -46,10 +46,10 @@
     <x:t>8177</x:t>
   </x:si>
   <x:si>
-    <x:t>6034</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14211</x:t>
+    <x:t>6033</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14210</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14912</x:t>
+    <x:t>14914</x:t>
   </x:si>
   <x:si>
     <x:t>9479</x:t>
   </x:si>
   <x:si>
-    <x:t>24391</x:t>
+    <x:t>24393</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -34,10 +34,10 @@
     <x:t>7095</x:t>
   </x:si>
   <x:si>
-    <x:t>6848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13943</x:t>
+    <x:t>6849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13944</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14914</x:t>
+    <x:t>14916</x:t>
   </x:si>
   <x:si>
     <x:t>9479</x:t>
   </x:si>
   <x:si>
-    <x:t>24393</x:t>
+    <x:t>24395</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13944</x:t>
+    <x:t>7101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13949</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6636</x:t>
+    <x:t>6637</x:t>
   </x:si>
   <x:si>
     <x:t>5651</x:t>
   </x:si>
   <x:si>
-    <x:t>12287</x:t>
+    <x:t>12288</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -43,10 +43,10 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8177</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6033</x:t>
+    <x:t>8174</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6036</x:t>
   </x:si>
   <x:si>
     <x:t>14210</x:t>
@@ -67,22 +67,22 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>5032</x:t>
+    <x:t>5034</x:t>
   </x:si>
   <x:si>
     <x:t>5691</x:t>
   </x:si>
   <x:si>
-    <x:t>10723</x:t>
+    <x:t>10725</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14916</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9479</x:t>
+    <x:t>14917</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9478</x:t>
   </x:si>
   <x:si>
     <x:t>24395</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7101</x:t>
+    <x:t>7103</x:t>
   </x:si>
   <x:si>
     <x:t>6848</x:t>
   </x:si>
   <x:si>
-    <x:t>13949</x:t>
+    <x:t>13951</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -103,13 +103,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2575</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2294</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4869</x:t>
+    <x:t>2576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2295</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4871</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,10 +31,10 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7103</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6848</x:t>
+    <x:t>7102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6849</x:t>
   </x:si>
   <x:si>
     <x:t>13951</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14917</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9478</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24395</x:t>
+    <x:t>14922</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24407</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -103,25 +103,25 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2576</x:t>
+    <x:t>2577</x:t>
   </x:si>
   <x:si>
     <x:t>2295</x:t>
   </x:si>
   <x:si>
-    <x:t>4871</x:t>
+    <x:t>4872</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6637</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12288</x:t>
+    <x:t>6638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5652</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12290</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -91,13 +91,13 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3230</x:t>
+    <x:t>3231</x:t>
   </x:si>
   <x:si>
     <x:t>3410</x:t>
   </x:si>
   <x:si>
-    <x:t>6640</x:t>
+    <x:t>6641</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -34,22 +34,22 @@
     <x:t>7102</x:t>
   </x:si>
   <x:si>
-    <x:t>6849</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13951</x:t>
+    <x:t>6848</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13950</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8174</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14210</x:t>
+    <x:t>8172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6035</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14207</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6638</x:t>
+    <x:t>6640</x:t>
   </x:si>
   <x:si>
     <x:t>5652</x:t>
   </x:si>
   <x:si>
-    <x:t>12290</x:t>
+    <x:t>12292</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7102</x:t>
+    <x:t>7104</x:t>
   </x:si>
   <x:si>
     <x:t>6848</x:t>
   </x:si>
   <x:si>
-    <x:t>13950</x:t>
+    <x:t>13952</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14922</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24407</x:t>
+    <x:t>14926</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9486</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24412</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -94,10 +94,10 @@
     <x:t>3231</x:t>
   </x:si>
   <x:si>
-    <x:t>3410</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6641</x:t>
+    <x:t>3411</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6642</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -67,25 +67,25 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>5034</x:t>
+    <x:t>5035</x:t>
   </x:si>
   <x:si>
     <x:t>5691</x:t>
   </x:si>
   <x:si>
-    <x:t>10725</x:t>
+    <x:t>10726</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14926</x:t>
+    <x:t>14927</x:t>
   </x:si>
   <x:si>
     <x:t>9486</x:t>
   </x:si>
   <x:si>
-    <x:t>24412</x:t>
+    <x:t>24413</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -118,10 +118,10 @@
     <x:t>6640</x:t>
   </x:si>
   <x:si>
-    <x:t>5652</x:t>
-  </x:si>
-  <x:si>
-    <x:t>12292</x:t>
+    <x:t>5651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>12291</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14927</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9486</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24413</x:t>
+    <x:t>14929</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9488</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24417</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7104</x:t>
+    <x:t>7102</x:t>
   </x:si>
   <x:si>
     <x:t>6848</x:t>
   </x:si>
   <x:si>
-    <x:t>13952</x:t>
+    <x:t>13950</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -79,25 +79,25 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14929</x:t>
+    <x:t>14931</x:t>
   </x:si>
   <x:si>
     <x:t>9488</x:t>
   </x:si>
   <x:si>
-    <x:t>24417</x:t>
+    <x:t>24419</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3231</x:t>
+    <x:t>3232</x:t>
   </x:si>
   <x:si>
     <x:t>3411</x:t>
   </x:si>
   <x:si>
-    <x:t>6642</x:t>
+    <x:t>6643</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7102</x:t>
+    <x:t>7100</x:t>
   </x:si>
   <x:si>
     <x:t>6848</x:t>
   </x:si>
   <x:si>
-    <x:t>13950</x:t>
+    <x:t>13948</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -70,10 +70,10 @@
     <x:t>5035</x:t>
   </x:si>
   <x:si>
-    <x:t>5691</x:t>
-  </x:si>
-  <x:si>
-    <x:t>10726</x:t>
+    <x:t>5692</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10727</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
@@ -91,13 +91,13 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3232</x:t>
+    <x:t>3233</x:t>
   </x:si>
   <x:si>
     <x:t>3411</x:t>
   </x:si>
   <x:si>
-    <x:t>6643</x:t>
+    <x:t>6644</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8172</x:t>
+    <x:t>8173</x:t>
   </x:si>
   <x:si>
     <x:t>6035</x:t>
   </x:si>
   <x:si>
-    <x:t>14207</x:t>
+    <x:t>14208</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -67,25 +67,25 @@
     <x:t>3</x:t>
   </x:si>
   <x:si>
-    <x:t>5035</x:t>
+    <x:t>5036</x:t>
   </x:si>
   <x:si>
     <x:t>5692</x:t>
   </x:si>
   <x:si>
-    <x:t>10727</x:t>
+    <x:t>10728</x:t>
   </x:si>
   <x:si>
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14931</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9488</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24419</x:t>
+    <x:t>14934</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24424</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7100</x:t>
+    <x:t>7101</x:t>
   </x:si>
   <x:si>
     <x:t>6848</x:t>
   </x:si>
   <x:si>
-    <x:t>13948</x:t>
+    <x:t>13949</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -82,10 +82,10 @@
     <x:t>14934</x:t>
   </x:si>
   <x:si>
-    <x:t>9490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24424</x:t>
+    <x:t>9491</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24425</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8173</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6035</x:t>
-  </x:si>
-  <x:si>
-    <x:t>14208</x:t>
+    <x:t>8172</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6034</x:t>
+  </x:si>
+  <x:si>
+    <x:t>14206</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -79,25 +79,25 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14934</x:t>
-  </x:si>
-  <x:si>
-    <x:t>9491</x:t>
-  </x:si>
-  <x:si>
-    <x:t>24425</x:t>
+    <x:t>14936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>9492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24428</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3233</x:t>
+    <x:t>3234</x:t>
   </x:si>
   <x:si>
     <x:t>3411</x:t>
   </x:si>
   <x:si>
-    <x:t>6644</x:t>
+    <x:t>6645</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>
@@ -115,13 +115,13 @@
     <x:t>7</x:t>
   </x:si>
   <x:si>
-    <x:t>6640</x:t>
+    <x:t>6641</x:t>
   </x:si>
   <x:si>
     <x:t>5651</x:t>
   </x:si>
   <x:si>
-    <x:t>12291</x:t>
+    <x:t>12292</x:t>
   </x:si>
   <x:si>
     <x:t>8</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8172</x:t>
+    <x:t>8174</x:t>
   </x:si>
   <x:si>
     <x:t>6034</x:t>
   </x:si>
   <x:si>
-    <x:t>14206</x:t>
+    <x:t>14208</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -91,13 +91,13 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3234</x:t>
+    <x:t>3235</x:t>
   </x:si>
   <x:si>
     <x:t>3411</x:t>
   </x:si>
   <x:si>
-    <x:t>6645</x:t>
+    <x:t>6646</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -43,13 +43,13 @@
     <x:t>10</x:t>
   </x:si>
   <x:si>
-    <x:t>8174</x:t>
+    <x:t>8173</x:t>
   </x:si>
   <x:si>
     <x:t>6034</x:t>
   </x:si>
   <x:si>
-    <x:t>14208</x:t>
+    <x:t>14207</x:t>
   </x:si>
   <x:si>
     <x:t>2</x:t>
@@ -91,13 +91,13 @@
     <x:t>5</x:t>
   </x:si>
   <x:si>
-    <x:t>3235</x:t>
+    <x:t>3236</x:t>
   </x:si>
   <x:si>
     <x:t>3411</x:t>
   </x:si>
   <x:si>
-    <x:t>6646</x:t>
+    <x:t>6647</x:t>
   </x:si>
   <x:si>
     <x:t>6</x:t>

--- a/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
+++ b/store/arrests/ArrestsByJudicialDistrictDownloadData_ReportYear_2023.xlsx
@@ -31,13 +31,13 @@
     <x:t>1</x:t>
   </x:si>
   <x:si>
-    <x:t>7101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6848</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13949</x:t>
+    <x:t>7102</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6849</x:t>
+  </x:si>
+  <x:si>
+    <x:t>13951</x:t>
   </x:si>
   <x:si>
     <x:t>10</x:t>
@@ -79,13 +79,13 @@
     <x:t>4</x:t>
   </x:si>
   <x:si>
-    <x:t>14936</x:t>
+    <x:t>14938</x:t>
   </x:si>
   <x:si>
     <x:t>9492</x:t>
   </x:si>
   <x:si>
-    <x:t>24428</x:t>
+    <x:t>24430</x:t>
   </x:si>
   <x:si>
     <x:t>5</x:t>
@@ -103,13 +103,13 @@
     <x:t>6</x:t>
   </x:si>
   <x:si>
-    <x:t>2577</x:t>
+    <x:t>2579</x:t>
   </x:si>
   <x:si>
     <x:t>2295</x:t>
   </x:si>
   <x:si>
-    <x:t>4872</x:t>
+    <x:t>4874</x:t>
   </x:si>
   <x:si>
     <x:t>7</x:t>
